--- a/ndx_vs_carneige/spx.xlsx
+++ b/ndx_vs_carneige/spx.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1611,6 +1611,125 @@
         <v>-0.1596563026907249</v>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="C70" t="n">
+        <v>6800.259765625</v>
+      </c>
+      <c r="D70" t="n">
+        <v>4.106216816775654</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-0.2383917951962355</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>46008</v>
+      </c>
+      <c r="C71" t="n">
+        <v>6721.43017578125</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2.899402569276588</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-1.159214391224139</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>46009</v>
+      </c>
+      <c r="C72" t="n">
+        <v>6774.759765625</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3.715833416681558</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.7934262269941872</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>46010</v>
+      </c>
+      <c r="C73" t="n">
+        <v>6834.5</v>
+      </c>
+      <c r="D73" t="n">
+        <v>4.630405801690607</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.8818059450332205</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>46013</v>
+      </c>
+      <c r="C74" t="n">
+        <v>6878.490234375</v>
+      </c>
+      <c r="D74" t="n">
+        <v>5.303859027818025</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.6436496360377575</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>46014</v>
+      </c>
+      <c r="C75" t="n">
+        <v>6909.7900390625</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5.783032524923404</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.4550388765703239</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>46015</v>
+      </c>
+      <c r="C76" t="n">
+        <v>6932.0498046875</v>
+      </c>
+      <c r="D76" t="n">
+        <v>6.123810681393405</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.3221482201218873</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ndx_vs_carneige/spx.xlsx
+++ b/ndx_vs_carneige/spx.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1730,6 +1730,74 @@
         <v>0.3221482201218873</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>46017</v>
+      </c>
+      <c r="C77" t="n">
+        <v>6929.93994140625</v>
+      </c>
+      <c r="D77" t="n">
+        <v>6.091510461728</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-0.03043635491226659</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>46020</v>
+      </c>
+      <c r="C78" t="n">
+        <v>6905.740234375</v>
+      </c>
+      <c r="D78" t="n">
+        <v>5.721033445565626</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-0.349205148036813</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>46021</v>
+      </c>
+      <c r="C79" t="n">
+        <v>6896.240234375</v>
+      </c>
+      <c r="D79" t="n">
+        <v>5.575596492589407</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-0.1375667151902293</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="C80" t="n">
+        <v>6845.5</v>
+      </c>
+      <c r="D80" t="n">
+        <v>4.79880648408415</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-0.7357666300846111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ndx_vs_carneige/spx.xlsx
+++ b/ndx_vs_carneige/spx.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1798,6 +1798,108 @@
         <v>-0.7357666300846111</v>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="C81" t="n">
+        <v>6858.47021484375</v>
+      </c>
+      <c r="D81" t="n">
+        <v>4.997369486854897</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.1894706718829964</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="C82" t="n">
+        <v>6902.0498046875</v>
+      </c>
+      <c r="D82" t="n">
+        <v>5.664536093047423</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.6354126864826393</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="C83" t="n">
+        <v>6944.81982421875</v>
+      </c>
+      <c r="D83" t="n">
+        <v>6.319308863506268</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.6196712678341321</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="C84" t="n">
+        <v>6920.93017578125</v>
+      </c>
+      <c r="D84" t="n">
+        <v>5.953578581777474</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-0.3439923431013958</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="C85" t="n">
+        <v>6921.4599609375</v>
+      </c>
+      <c r="D85" t="n">
+        <v>5.961689143762405</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.00765482590914246</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>46031</v>
+      </c>
+      <c r="C86" t="n">
+        <v>6966.27978515625</v>
+      </c>
+      <c r="D86" t="n">
+        <v>6.647842687689276</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.6475487031883276</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
